--- a/202201.xlsx
+++ b/202201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\班表\寄給F的\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFAF58-8EB0-4E37-BC8D-684C2064426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78868A2-963B-475E-AD3C-86A565A4026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
   <si>
     <t>亞瑪精品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,10 +131,6 @@
   </si>
   <si>
     <t>事假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1472,7 @@
       <pane xSplit="34" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.68359375" defaultRowHeight="18" x14ac:dyDescent="0.6"/>
@@ -1787,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="86"/>
@@ -1813,9 +1809,7 @@
       <c r="T6" s="66"/>
       <c r="U6" s="66"/>
       <c r="V6" s="66"/>
-      <c r="W6" s="66" t="s">
-        <v>10</v>
-      </c>
+      <c r="W6" s="66"/>
       <c r="X6" s="97" t="s">
         <v>10</v>
       </c>
@@ -1933,15 +1927,15 @@
       <c r="N8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="67" t="s">
-        <v>13</v>
-      </c>
+      <c r="O8" s="67"/>
       <c r="P8" s="67"/>
       <c r="Q8" s="93"/>
       <c r="R8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="67"/>
+      <c r="S8" s="67" t="s">
+        <v>13</v>
+      </c>
       <c r="T8" s="67"/>
       <c r="U8" s="67" t="s">
         <v>10</v>
@@ -2084,9 +2078,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="68"/>
-      <c r="N10" s="68" t="s">
-        <v>13</v>
-      </c>
+      <c r="N10" s="68"/>
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
       <c r="Q10" s="95"/>
@@ -2104,7 +2096,9 @@
       </c>
       <c r="X10" s="95"/>
       <c r="Y10" s="95"/>
-      <c r="Z10" s="68"/>
+      <c r="Z10" s="68" t="s">
+        <v>13</v>
+      </c>
       <c r="AA10" s="68" t="s">
         <v>10</v>
       </c>

--- a/202201.xlsx
+++ b/202201.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMA\班表\寄給F的\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\python\coding\class_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78868A2-963B-475E-AD3C-86A565A4026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5112556-54FB-4133-BC4F-545EB6D890B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1469,10 +1469,10 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="34" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="34" ySplit="4" topLeftCell="AI9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.68359375" defaultRowHeight="18" x14ac:dyDescent="0.6"/>

--- a/202201.xlsx
+++ b/202201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\python\coding\class_schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spp72\Desktop\python\coding\class_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5112556-54FB-4133-BC4F-545EB6D890B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7688E2-C7D4-4FCB-AAC5-9D29DCA378BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10011" sheetId="27" r:id="rId1"/>
@@ -380,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -726,6 +726,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1088,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1469,24 +1505,21 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="34" ySplit="4" topLeftCell="AI9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AB24" sqref="AB24"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.68359375" defaultRowHeight="18" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.20703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="33" width="9.68359375" style="21" customWidth="1"/>
-    <col min="34" max="34" width="5.68359375" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="3.68359375" style="1" customWidth="1"/>
-    <col min="36" max="51" width="3.68359375" style="1"/>
-    <col min="56" max="16384" width="3.68359375" style="1"/>
+    <col min="3" max="33" width="9.6640625" style="21" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" style="1" customWidth="1"/>
+    <col min="36" max="51" width="3.6640625" style="1"/>
+    <col min="56" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1534,7 @@
       <c r="AG1" s="31"/>
       <c r="AH1" s="9"/>
     </row>
-    <row r="2" spans="1:55" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:55" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="58" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1575,7 @@
       <c r="AF2" s="59"/>
       <c r="AG2" s="59"/>
     </row>
-    <row r="3" spans="1:55" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="39"/>
@@ -1568,7 +1601,7 @@
       <c r="AG3" s="30"/>
       <c r="AH3" s="10"/>
     </row>
-    <row r="4" spans="1:55" s="46" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:55" s="46" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="44"/>
       <c r="C4" s="88">
@@ -1668,10 +1701,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="90" t="s">
@@ -1761,7 +1794,7 @@
       <c r="AF5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="AG5" s="64" t="s">
+      <c r="AG5" s="108" t="s">
         <v>3</v>
       </c>
       <c r="AH5" s="70" t="s">
@@ -1772,7 +1805,7 @@
       <c r="BB5" s="50"/>
       <c r="BC5" s="50"/>
     </row>
-    <row r="6" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="106" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1868,7 @@
       <c r="BB6" s="50"/>
       <c r="BC6" s="50"/>
     </row>
-    <row r="7" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="100"/>
       <c r="B7" s="54" t="s">
         <v>6</v>
@@ -1898,7 +1931,7 @@
       <c r="BB7" s="50"/>
       <c r="BC7" s="50"/>
     </row>
-    <row r="8" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="99" t="s">
         <v>7</v>
       </c>
@@ -1973,7 +2006,7 @@
       <c r="BB8" s="50"/>
       <c r="BC8" s="50"/>
     </row>
-    <row r="9" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="100"/>
       <c r="B9" s="73" t="s">
         <v>5</v>
@@ -2048,7 +2081,7 @@
       <c r="BB9" s="50"/>
       <c r="BC9" s="50"/>
     </row>
-    <row r="10" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="101"/>
       <c r="B10" s="56" t="s">
         <v>11</v>
@@ -2121,7 +2154,7 @@
       <c r="BB10" s="50"/>
       <c r="BC10" s="50"/>
     </row>
-    <row r="11" spans="1:55" s="3" customFormat="1" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:55" s="3" customFormat="1" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
       <c r="C11" s="23"/>
@@ -2157,7 +2190,7 @@
       <c r="AG11" s="23"/>
       <c r="AH11" s="18"/>
     </row>
-    <row r="12" spans="1:55" s="3" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:55" s="3" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="23"/>
@@ -2193,7 +2226,7 @@
       <c r="AG12" s="23"/>
       <c r="AH12" s="11"/>
     </row>
-    <row r="13" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
       <c r="C13" s="24"/>
@@ -2229,7 +2262,7 @@
       <c r="AG13" s="24"/>
       <c r="AH13" s="11"/>
     </row>
-    <row r="14" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
@@ -2265,7 +2298,7 @@
       <c r="AG14" s="23"/>
       <c r="AH14" s="17"/>
     </row>
-    <row r="15" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="21"/>
@@ -2301,7 +2334,7 @@
       <c r="AG15" s="26"/>
       <c r="AH15" s="11"/>
     </row>
-    <row r="16" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="25"/>
@@ -2337,15 +2370,15 @@
       <c r="AG16" s="26"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="2:34" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:34" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="D20" s="23"/>
       <c r="F20" s="23"/>
@@ -2354,7 +2387,7 @@
       <c r="J20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="D21" s="25"/>
       <c r="F21" s="26"/>
@@ -2363,8 +2396,8 @@
       <c r="J21" s="25"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="24" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="24" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A8:A10"/>
